--- a/biology/Microbiologie/Gélose_M17/Gélose_M17.xlsx
+++ b/biology/Microbiologie/Gélose_M17/Gélose_M17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_M17</t>
+          <t>Gélose_M17</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La gélose M17 est utilisée in vitro pour la culture et l'isolement des lactocoques, comme Lactococcus lactis, des streptocoques lactiques mésophiles, Streptococcus thermophilus dans le yaourt, fromages et autres produits laitiers[1].
-Lorsque le lactose est remplacé par du glucose, le milieu gélose M17 classique prend le nom de « gélose M17 glucose - bouillon M17 saccharose »[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La gélose M17 est utilisée in vitro pour la culture et l'isolement des lactocoques, comme Lactococcus lactis, des streptocoques lactiques mésophiles, Streptococcus thermophilus dans le yaourt, fromages et autres produits laitiers.
+Lorsque le lactose est remplacé par du glucose, le milieu gélose M17 classique prend le nom de « gélose M17 glucose - bouillon M17 saccharose ».
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_M17</t>
+          <t>Gélose_M17</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La formule-type peut varier et être ajustée. Dosage pour un litre de milieu[3] :
-Tryptone[4]  2,5 g
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La formule-type peut varier et être ajustée. Dosage pour un litre de milieu :
+Tryptone  2,5 g
 Peptone papaïnique de soja 5,0 g
 Peptone pepsique de viande 2,5 g
 Extrait de viande 5,0 g
@@ -536,7 +550,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_M17</t>
+          <t>Gélose_M17</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,9 +568,11 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avec un milieu déshydraté : 57,2 g de poudre dans un litre d'eau distillée ou déminéralisée. Porter peu à peu à ébullition en agitant constamment jusqu'à dissolution. Verser dans des tubes ou flacons, et stériliser à l'autoclave, 115 °C pendant 20 minutes[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec un milieu déshydraté : 57,2 g de poudre dans un litre d'eau distillée ou déminéralisée. Porter peu à peu à ébullition en agitant constamment jusqu'à dissolution. Verser dans des tubes ou flacons, et stériliser à l'autoclave, 115 °C pendant 20 minutes.
 </t>
         </is>
       </c>
